--- a/data_ASL.xlsx
+++ b/data_ASL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/91a1cd10a85c31d1/Desktop/ASL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACA39CAC-F8B5-4839-8385-C5D5B00DA955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{ACA39CAC-F8B5-4839-8385-C5D5B00DA955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE90C5F6-6D8E-4D24-94EF-1B6BC93C8124}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4E14E1CA-D397-4452-8287-2EEB3DCBBFB9}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="47">
   <si>
     <t>Einnahmen</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>Kategorie</t>
+  </si>
+  <si>
+    <t>Unterkategorie</t>
   </si>
 </sst>
 </file>
@@ -2286,742 +2289,7 @@
       </sheetData>
       <sheetData sheetId="25"/>
       <sheetData sheetId="26"/>
-      <sheetData sheetId="27">
-        <row r="1">
-          <cell r="B1">
-            <v>2018</v>
-          </cell>
-          <cell r="C1">
-            <v>2019</v>
-          </cell>
-          <cell r="D1">
-            <v>2022</v>
-          </cell>
-          <cell r="E1">
-            <v>2023</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Sponsoring Cash</v>
-          </cell>
-          <cell r="B2">
-            <v>62330</v>
-          </cell>
-          <cell r="C2">
-            <v>66750</v>
-          </cell>
-          <cell r="D2">
-            <v>72420.89</v>
-          </cell>
-          <cell r="E2">
-            <v>63240</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Sponsoring Leistungen</v>
-          </cell>
-          <cell r="C3">
-            <v>13920</v>
-          </cell>
-          <cell r="D3">
-            <v>13552.75</v>
-          </cell>
-          <cell r="E3">
-            <v>16820.400000000001</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Büro a+o</v>
-          </cell>
-          <cell r="C4">
-            <v>2500</v>
-          </cell>
-          <cell r="D4">
-            <v>5250</v>
-          </cell>
-          <cell r="E4">
-            <v>5600</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Baranzini Fotografie + Texte</v>
-          </cell>
-          <cell r="C5">
-            <v>2000</v>
-          </cell>
-          <cell r="D5">
-            <v>4550</v>
-          </cell>
-          <cell r="E5">
-            <v>4550</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Storyflow</v>
-          </cell>
-          <cell r="E6">
-            <v>3900</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>Diverses</v>
-          </cell>
-          <cell r="C7">
-            <v>9420</v>
-          </cell>
-          <cell r="D7">
-            <v>3752.75</v>
-          </cell>
-          <cell r="E7">
-            <v>2770.4</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>Sponsoring Preise</v>
-          </cell>
-          <cell r="B8">
-            <v>4300</v>
-          </cell>
-          <cell r="C8">
-            <v>3130</v>
-          </cell>
-          <cell r="D8">
-            <v>3775</v>
-          </cell>
-          <cell r="E8">
-            <v>900</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>Startgelder</v>
-          </cell>
-          <cell r="B9">
-            <v>11527.2</v>
-          </cell>
-          <cell r="C9">
-            <v>10502</v>
-          </cell>
-          <cell r="D9">
-            <v>10482.230000000001</v>
-          </cell>
-          <cell r="E9">
-            <v>12885.89</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>Festwirtschaft</v>
-          </cell>
-          <cell r="B10">
-            <v>-408.90000000000009</v>
-          </cell>
-          <cell r="C10">
-            <v>-313.90000000000009</v>
-          </cell>
-          <cell r="D10">
-            <v>-753.39999999999986</v>
-          </cell>
-          <cell r="E10">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>Merchandise Lauftag</v>
-          </cell>
-          <cell r="B11">
-            <v>0</v>
-          </cell>
-          <cell r="C11">
-            <v>0</v>
-          </cell>
-          <cell r="D11">
-            <v>328.77000000000004</v>
-          </cell>
-          <cell r="E11">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>Taler</v>
-          </cell>
-          <cell r="B12">
-            <v>1424.6</v>
-          </cell>
-          <cell r="C12">
-            <v>1626</v>
-          </cell>
-          <cell r="D12">
-            <v>2961.5</v>
-          </cell>
-          <cell r="E12">
-            <v>360</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>Diverses</v>
-          </cell>
-          <cell r="B13">
-            <v>0</v>
-          </cell>
-          <cell r="C13">
-            <v>0</v>
-          </cell>
-          <cell r="D13">
-            <v>700</v>
-          </cell>
-          <cell r="E13">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>Lauf</v>
-          </cell>
-          <cell r="B16">
-            <v>26702.05</v>
-          </cell>
-          <cell r="C16">
-            <v>29182.900000000005</v>
-          </cell>
-          <cell r="D16">
-            <v>30826.949999999997</v>
-          </cell>
-          <cell r="E16">
-            <v>26024.949999999997</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>Preise</v>
-          </cell>
-          <cell r="B17">
-            <v>8046</v>
-          </cell>
-          <cell r="C17">
-            <v>6213.55</v>
-          </cell>
-          <cell r="D17">
-            <v>7570</v>
-          </cell>
-          <cell r="E17">
-            <v>3165</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>Medaillen</v>
-          </cell>
-          <cell r="B18">
-            <v>1553.35</v>
-          </cell>
-          <cell r="C18">
-            <v>4482.1000000000004</v>
-          </cell>
-          <cell r="D18">
-            <v>4434.25</v>
-          </cell>
-          <cell r="E18">
-            <v>4259.25</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>Zeitmessung</v>
-          </cell>
-          <cell r="B19">
-            <v>5694.25</v>
-          </cell>
-          <cell r="C19">
-            <v>5969.8</v>
-          </cell>
-          <cell r="D19">
-            <v>5618.15</v>
-          </cell>
-          <cell r="E19">
-            <v>7495.9</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>Werkhof</v>
-          </cell>
-          <cell r="B20">
-            <v>2599.85</v>
-          </cell>
-          <cell r="C20">
-            <v>2667.15</v>
-          </cell>
-          <cell r="D20">
-            <v>1227.0999999999999</v>
-          </cell>
-          <cell r="E20">
-            <v>757.6</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>AAR</v>
-          </cell>
-          <cell r="B21">
-            <v>1870</v>
-          </cell>
-          <cell r="C21">
-            <v>0</v>
-          </cell>
-          <cell r="D21">
-            <v>0</v>
-          </cell>
-          <cell r="E21">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>WC-Anlage</v>
-          </cell>
-          <cell r="B22">
-            <v>883.1</v>
-          </cell>
-          <cell r="C22">
-            <v>883.15</v>
-          </cell>
-          <cell r="D22">
-            <v>937</v>
-          </cell>
-          <cell r="E22">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>Speaker-Anlage</v>
-          </cell>
-          <cell r="B23">
-            <v>1524.2</v>
-          </cell>
-          <cell r="C23">
-            <v>2024.2</v>
-          </cell>
-          <cell r="D23">
-            <v>1632.2</v>
-          </cell>
-          <cell r="E23">
-            <v>740</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>Gebühren Martkhalle/Turnhalle</v>
-          </cell>
-          <cell r="B24">
-            <v>1290</v>
-          </cell>
-          <cell r="C24">
-            <v>1300.8</v>
-          </cell>
-          <cell r="D24">
-            <v>1255</v>
-          </cell>
-          <cell r="E24">
-            <v>595</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>Helfer-Entschädigungen</v>
-          </cell>
-          <cell r="B25">
-            <v>2422</v>
-          </cell>
-          <cell r="C25">
-            <v>2960</v>
-          </cell>
-          <cell r="D25">
-            <v>6913.4</v>
-          </cell>
-          <cell r="E25">
-            <v>6883.85</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>Diverses Lauf</v>
-          </cell>
-          <cell r="B26">
-            <v>819.3</v>
-          </cell>
-          <cell r="C26">
-            <v>2682.15</v>
-          </cell>
-          <cell r="D26">
-            <v>196</v>
-          </cell>
-          <cell r="E26">
-            <v>1084</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>Mitgliedschaft Swiss Athletics</v>
-          </cell>
-          <cell r="D27">
-            <v>1043.8499999999999</v>
-          </cell>
-          <cell r="E27">
-            <v>1044.3499999999999</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v xml:space="preserve">Werbung  </v>
-          </cell>
-          <cell r="B28">
-            <v>26117.850000000002</v>
-          </cell>
-          <cell r="C28">
-            <v>33849.269999999997</v>
-          </cell>
-          <cell r="D28">
-            <v>41879.360000000001</v>
-          </cell>
-          <cell r="E28">
-            <v>30160.34</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>Drucksachen</v>
-          </cell>
-          <cell r="B29">
-            <v>4599.1000000000004</v>
-          </cell>
-          <cell r="C29">
-            <v>6560.1</v>
-          </cell>
-          <cell r="D29">
-            <v>6322.05</v>
-          </cell>
-          <cell r="E29">
-            <v>5465.65</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>Website</v>
-          </cell>
-          <cell r="B30">
-            <v>2629.2</v>
-          </cell>
-          <cell r="C30">
-            <v>359</v>
-          </cell>
-          <cell r="D30">
-            <v>159</v>
-          </cell>
-          <cell r="E30">
-            <v>359.04</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>Promo</v>
-          </cell>
-          <cell r="B31">
-            <v>3732.65</v>
-          </cell>
-          <cell r="C31">
-            <v>4300</v>
-          </cell>
-          <cell r="D31">
-            <v>2217.6999999999998</v>
-          </cell>
-          <cell r="E31">
-            <v>737.7</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>Baranzini Fotografie &amp; Texte</v>
-          </cell>
-          <cell r="B32">
-            <v>6462</v>
-          </cell>
-          <cell r="C32">
-            <v>9582</v>
-          </cell>
-          <cell r="D32">
-            <v>8642.15</v>
-          </cell>
-          <cell r="E32">
-            <v>7535.65</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33" t="str">
-            <v>Büro a+o</v>
-          </cell>
-          <cell r="B33">
-            <v>7538.9999999999991</v>
-          </cell>
-          <cell r="C33">
-            <v>12408.4</v>
-          </cell>
-          <cell r="D33">
-            <v>11550.45</v>
-          </cell>
-          <cell r="E33">
-            <v>9908</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
-            <v>Storyflow</v>
-          </cell>
-          <cell r="E34">
-            <v>5904.3</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>T-Shirts/Läufersäckli</v>
-          </cell>
-          <cell r="B35">
-            <v>1155.9000000000001</v>
-          </cell>
-          <cell r="C35">
-            <v>639.77</v>
-          </cell>
-          <cell r="D35">
-            <v>12988.01</v>
-          </cell>
-          <cell r="E35">
-            <v>250</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v>Aufwand + Entschädigung Vorstand</v>
-          </cell>
-          <cell r="B36">
-            <v>5877.85</v>
-          </cell>
-          <cell r="C36">
-            <v>5980.7</v>
-          </cell>
-          <cell r="D36">
-            <v>7169.1</v>
-          </cell>
-          <cell r="E36">
-            <v>10363.15</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37" t="str">
-            <v>Aufwand Vorstand</v>
-          </cell>
-          <cell r="B37">
-            <v>2377.85</v>
-          </cell>
-          <cell r="C37">
-            <v>2480.6999999999998</v>
-          </cell>
-          <cell r="D37">
-            <v>2169.1</v>
-          </cell>
-          <cell r="E37">
-            <v>3863.15</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38" t="str">
-            <v>Entschädigung Vorstand</v>
-          </cell>
-          <cell r="B38">
-            <v>3500</v>
-          </cell>
-          <cell r="C38">
-            <v>3500</v>
-          </cell>
-          <cell r="D38">
-            <v>5000</v>
-          </cell>
-          <cell r="E38">
-            <v>6500</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39" t="str">
-            <v>Aufwand OK</v>
-          </cell>
-          <cell r="B39">
-            <v>2561</v>
-          </cell>
-          <cell r="C39">
-            <v>2145.65</v>
-          </cell>
-          <cell r="D39">
-            <v>1053.1300000000001</v>
-          </cell>
-          <cell r="E39">
-            <v>1010.9</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40" t="str">
-            <v>Sponsoringaufwände</v>
-          </cell>
-          <cell r="B40">
-            <v>9204.0499999999993</v>
-          </cell>
-          <cell r="C40">
-            <v>9171</v>
-          </cell>
-          <cell r="D40">
-            <v>13234.75</v>
-          </cell>
-          <cell r="E40">
-            <v>8785.15</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41" t="str">
-            <v>Sponsoring Akquisition</v>
-          </cell>
-          <cell r="B41">
-            <v>1666.05</v>
-          </cell>
-          <cell r="C41">
-            <v>998</v>
-          </cell>
-          <cell r="D41">
-            <v>1061</v>
-          </cell>
-          <cell r="E41">
-            <v>188</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42" t="str">
-            <v>Sponsoring Vergütung Vorstand</v>
-          </cell>
-          <cell r="B42">
-            <v>7538</v>
-          </cell>
-          <cell r="C42">
-            <v>8173</v>
-          </cell>
-          <cell r="D42">
-            <v>12137</v>
-          </cell>
-          <cell r="E42">
-            <v>8301.5</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43" t="str">
-            <v>Sponsoring Cash Rückerstattung</v>
-          </cell>
-          <cell r="C43">
-            <v>0</v>
-          </cell>
-          <cell r="D43">
-            <v>0</v>
-          </cell>
-          <cell r="E43">
-            <v>232.65</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44" t="str">
-            <v>Startgelder Rückerstattung</v>
-          </cell>
-          <cell r="D44">
-            <v>36.75</v>
-          </cell>
-          <cell r="E44">
-            <v>63</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45" t="str">
-            <v>Abschlussevent/GV</v>
-          </cell>
-          <cell r="B45">
-            <v>1173</v>
-          </cell>
-          <cell r="C45">
-            <v>7184.5</v>
-          </cell>
-          <cell r="D45">
-            <v>1274.7</v>
-          </cell>
-          <cell r="E45">
-            <v>3190</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46" t="str">
-            <v>Marktumfrage</v>
-          </cell>
-          <cell r="B46">
-            <v>538.5</v>
-          </cell>
-          <cell r="C46">
-            <v>538.5</v>
-          </cell>
-          <cell r="D46">
-            <v>0</v>
-          </cell>
-          <cell r="E46">
-            <v>500</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47" t="str">
-            <v xml:space="preserve">Diverses  </v>
-          </cell>
-          <cell r="B47">
-            <v>118.55</v>
-          </cell>
-          <cell r="C47">
-            <v>-134.29000000000002</v>
-          </cell>
-          <cell r="D47">
-            <v>560</v>
-          </cell>
-          <cell r="E47">
-            <v>2984.2</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49" t="str">
-            <v>Gewinn</v>
-          </cell>
-          <cell r="B49">
-            <v>6880.0500000000029</v>
-          </cell>
-          <cell r="C49">
-            <v>7695.8699999999953</v>
-          </cell>
-          <cell r="D49">
-            <v>7469.75</v>
-          </cell>
-          <cell r="E49">
-            <v>11187.60000000002</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
     </sheetDataSet>
   </externalBook>
@@ -3331,8 +2599,8 @@
   </sheetPr>
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4391,919 +3659,940 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32465E32-7F01-467D-921C-5ABF18E5C861}">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.25" customWidth="1"/>
+    <col min="2" max="3" width="30.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>44</v>
       </c>
       <c r="B1" t="s">
         <v>45</v>
       </c>
-      <c r="C1">
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1">
         <v>2018</v>
       </c>
-      <c r="D1">
+      <c r="E1">
         <v>2019</v>
       </c>
-      <c r="E1">
+      <c r="F1">
         <v>2022</v>
       </c>
-      <c r="F1">
+      <c r="G1">
         <v>2023</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>62330</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>66750</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>72420.89</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>63240</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
       <c r="D3">
-        <v>13920</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>13552.75</v>
+        <v>2500</v>
       </c>
       <c r="F3">
-        <v>16820.400000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>5250</v>
+      </c>
+      <c r="G3">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="C4">
-        <v>0</v>
+      <c r="C4" t="s">
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>5250</v>
+        <v>2000</v>
       </c>
       <c r="F4">
-        <v>5600</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4550</v>
+      </c>
+      <c r="G4">
+        <v>4550</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="C5">
-        <v>0</v>
+      <c r="C5" t="s">
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>4550</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>4550</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
-      <c r="C6">
-        <v>0</v>
+      <c r="C6" t="s">
+        <v>2</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>9420</v>
       </c>
       <c r="F6">
-        <v>3900</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3752.75</v>
+      </c>
+      <c r="G6">
+        <v>2770.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>4300</v>
+      </c>
+      <c r="E7">
+        <v>3130</v>
+      </c>
+      <c r="F7">
+        <v>3775</v>
+      </c>
+      <c r="G7">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>11527.2</v>
+      </c>
+      <c r="E8">
+        <v>10502</v>
+      </c>
+      <c r="F8">
+        <v>10482.230000000001</v>
+      </c>
+      <c r="G8">
+        <v>12885.89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>-408.90000000000009</v>
+      </c>
+      <c r="E9">
+        <v>-313.90000000000009</v>
+      </c>
+      <c r="F9">
+        <v>-753.39999999999986</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>328.77000000000004</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>1424.6</v>
+      </c>
+      <c r="E11">
+        <v>1626</v>
+      </c>
+      <c r="F11">
+        <v>2961.5</v>
+      </c>
+      <c r="G11">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>9420</v>
-      </c>
-      <c r="E7">
-        <v>3752.75</v>
-      </c>
-      <c r="F7">
-        <v>2770.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>4300</v>
-      </c>
-      <c r="D8">
-        <v>3130</v>
-      </c>
-      <c r="E8">
-        <v>3775</v>
-      </c>
-      <c r="F8">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>11527.2</v>
-      </c>
-      <c r="D9">
-        <v>10502</v>
-      </c>
-      <c r="E9">
-        <v>10482.230000000001</v>
-      </c>
-      <c r="F9">
-        <v>12885.89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>-408.90000000000009</v>
-      </c>
-      <c r="D10">
-        <v>-313.90000000000009</v>
-      </c>
-      <c r="E10">
-        <v>-753.39999999999986</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>328.77000000000004</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
       <c r="B12" t="s">
         <v>0</v>
       </c>
-      <c r="C12">
-        <v>1424.6</v>
+      <c r="C12" t="s">
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>1626</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>2961.5</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>700</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>8046</v>
       </c>
       <c r="E13">
-        <v>700</v>
+        <v>6213.55</v>
       </c>
       <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7570</v>
+      </c>
+      <c r="G13">
+        <v>3165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="C14">
-        <v>26702.05</v>
+      <c r="C14" t="s">
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>29182.900000000005</v>
+        <v>1553.35</v>
       </c>
       <c r="E14">
-        <v>30826.949999999997</v>
+        <v>4482.1000000000004</v>
       </c>
       <c r="F14">
-        <v>26024.949999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4434.25</v>
+      </c>
+      <c r="G14">
+        <v>4259.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="C15">
-        <v>8046</v>
+      <c r="C15" t="s">
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>6213.55</v>
+        <v>5694.25</v>
       </c>
       <c r="E15">
-        <v>7570</v>
+        <v>5969.8</v>
       </c>
       <c r="F15">
-        <v>3165</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>5618.15</v>
+      </c>
+      <c r="G15">
+        <v>7495.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
       </c>
-      <c r="C16">
-        <v>1553.35</v>
+      <c r="C16" t="s">
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>4482.1000000000004</v>
+        <v>2599.85</v>
       </c>
       <c r="E16">
-        <v>4434.25</v>
+        <v>2667.15</v>
       </c>
       <c r="F16">
-        <v>4259.25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1227.0999999999999</v>
+      </c>
+      <c r="G16">
+        <v>757.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
       </c>
-      <c r="C17">
-        <v>5694.25</v>
+      <c r="C17" t="s">
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>5969.8</v>
+        <v>1870</v>
       </c>
       <c r="E17">
-        <v>5618.15</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>7495.9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
       </c>
-      <c r="C18">
-        <v>2599.85</v>
+      <c r="C18" t="s">
+        <v>13</v>
       </c>
       <c r="D18">
-        <v>2667.15</v>
+        <v>883.1</v>
       </c>
       <c r="E18">
-        <v>1227.0999999999999</v>
+        <v>883.15</v>
       </c>
       <c r="F18">
-        <v>757.6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>937</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
       </c>
-      <c r="C19">
-        <v>1870</v>
+      <c r="C19" t="s">
+        <v>13</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1524.2</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>2024.2</v>
       </c>
       <c r="F19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1632.2</v>
+      </c>
+      <c r="G19">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
       </c>
-      <c r="C20">
-        <v>883.1</v>
+      <c r="C20" t="s">
+        <v>13</v>
       </c>
       <c r="D20">
-        <v>883.15</v>
+        <v>1290</v>
       </c>
       <c r="E20">
-        <v>937</v>
+        <v>1300.8</v>
       </c>
       <c r="F20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1255</v>
+      </c>
+      <c r="G20">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
       </c>
-      <c r="C21">
-        <v>1524.2</v>
+      <c r="C21" t="s">
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>2024.2</v>
+        <v>2422</v>
       </c>
       <c r="E21">
-        <v>1632.2</v>
+        <v>2960</v>
       </c>
       <c r="F21">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6913.4</v>
+      </c>
+      <c r="G21">
+        <v>6883.85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
       </c>
-      <c r="C22">
-        <v>1290</v>
+      <c r="C22" t="s">
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>1300.8</v>
+        <v>819.3</v>
       </c>
       <c r="E22">
-        <v>1255</v>
+        <v>2682.15</v>
       </c>
       <c r="F22">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+      <c r="G22">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
       </c>
-      <c r="C23">
-        <v>2422</v>
+      <c r="C23" t="s">
+        <v>13</v>
       </c>
       <c r="D23">
-        <v>2960</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>6913.4</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>6883.85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1043.8499999999999</v>
+      </c>
+      <c r="G23">
+        <v>1044.3499999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
         <v>12</v>
       </c>
-      <c r="C24">
-        <v>819.3</v>
+      <c r="C24" t="s">
+        <v>25</v>
       </c>
       <c r="D24">
-        <v>2682.15</v>
+        <v>4599.1000000000004</v>
       </c>
       <c r="E24">
-        <v>196</v>
+        <v>6560.1</v>
       </c>
       <c r="F24">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6322.05</v>
+      </c>
+      <c r="G24">
+        <v>5465.65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
       </c>
-      <c r="C25">
-        <v>0</v>
+      <c r="C25" t="s">
+        <v>25</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>2629.2</v>
       </c>
       <c r="E25">
-        <v>1043.8499999999999</v>
+        <v>359</v>
       </c>
       <c r="F25">
-        <v>1044.3499999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+      <c r="G25">
+        <v>359.04</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
         <v>12</v>
       </c>
-      <c r="C26">
-        <v>26117.850000000002</v>
+      <c r="C26" t="s">
+        <v>25</v>
       </c>
       <c r="D26">
-        <v>33849.269999999997</v>
+        <v>3732.65</v>
       </c>
       <c r="E26">
-        <v>41879.360000000001</v>
+        <v>4300</v>
       </c>
       <c r="F26">
-        <v>30160.34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2217.6999999999998</v>
+      </c>
+      <c r="G26">
+        <v>737.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
       </c>
-      <c r="C27">
-        <v>4599.1000000000004</v>
+      <c r="C27" t="s">
+        <v>25</v>
       </c>
       <c r="D27">
-        <v>6560.1</v>
+        <v>6462</v>
       </c>
       <c r="E27">
-        <v>6322.05</v>
+        <v>9582</v>
       </c>
       <c r="F27">
-        <v>5465.65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8642.15</v>
+      </c>
+      <c r="G27">
+        <v>7535.65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B28" t="s">
         <v>12</v>
       </c>
-      <c r="C28">
-        <v>2629.2</v>
+      <c r="C28" t="s">
+        <v>25</v>
       </c>
       <c r="D28">
-        <v>359</v>
+        <v>7538.9999999999991</v>
       </c>
       <c r="E28">
-        <v>159</v>
+        <v>12408.4</v>
       </c>
       <c r="F28">
-        <v>359.04</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>11550.45</v>
+      </c>
+      <c r="G28">
+        <v>9908</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B29" t="s">
         <v>12</v>
       </c>
-      <c r="C29">
-        <v>3732.65</v>
+      <c r="C29" t="s">
+        <v>25</v>
       </c>
       <c r="D29">
-        <v>4300</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>2217.6999999999998</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>737.7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>5904.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
         <v>12</v>
       </c>
-      <c r="C30">
-        <v>6462</v>
+      <c r="C30" t="s">
+        <v>25</v>
       </c>
       <c r="D30">
-        <v>9582</v>
+        <v>1155.9000000000001</v>
       </c>
       <c r="E30">
-        <v>8642.15</v>
+        <v>639.77</v>
       </c>
       <c r="F30">
-        <v>7535.65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12988.01</v>
+      </c>
+      <c r="G30">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
         <v>12</v>
       </c>
-      <c r="C31">
-        <v>7538.9999999999991</v>
+      <c r="C31" t="s">
+        <v>31</v>
       </c>
       <c r="D31">
-        <v>12408.4</v>
+        <v>2377.85</v>
       </c>
       <c r="E31">
-        <v>11550.45</v>
+        <v>2480.6999999999998</v>
       </c>
       <c r="F31">
-        <v>9908</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2169.1</v>
+      </c>
+      <c r="G31">
+        <v>3863.15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
         <v>12</v>
       </c>
-      <c r="C32">
-        <v>0</v>
+      <c r="C32" t="s">
+        <v>31</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="F32">
-        <v>5904.3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+        <v>5000</v>
+      </c>
+      <c r="G32">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
         <v>12</v>
       </c>
-      <c r="C33">
-        <v>1155.9000000000001</v>
+      <c r="C33" t="s">
+        <v>34</v>
       </c>
       <c r="D33">
-        <v>639.77</v>
+        <v>2561</v>
       </c>
       <c r="E33">
-        <v>12988.01</v>
+        <v>2145.65</v>
       </c>
       <c r="F33">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1053.1300000000001</v>
+      </c>
+      <c r="G33">
+        <v>1010.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
         <v>12</v>
       </c>
-      <c r="C34">
-        <v>5877.85</v>
+      <c r="C34" t="s">
+        <v>35</v>
       </c>
       <c r="D34">
-        <v>5980.7</v>
+        <v>1666.05</v>
       </c>
       <c r="E34">
-        <v>7169.1</v>
+        <v>998</v>
       </c>
       <c r="F34">
-        <v>10363.15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1061</v>
+      </c>
+      <c r="G34">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
         <v>12</v>
       </c>
-      <c r="C35">
-        <v>2377.85</v>
+      <c r="C35" t="s">
+        <v>35</v>
       </c>
       <c r="D35">
-        <v>2480.6999999999998</v>
+        <v>7538</v>
       </c>
       <c r="E35">
-        <v>2169.1</v>
+        <v>8173</v>
       </c>
       <c r="F35">
-        <v>3863.15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12137</v>
+      </c>
+      <c r="G35">
+        <v>8301.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s">
         <v>12</v>
       </c>
-      <c r="C36">
-        <v>3500</v>
+      <c r="C36" t="s">
+        <v>35</v>
       </c>
       <c r="D36">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>232.65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
         <v>12</v>
       </c>
-      <c r="C37">
-        <v>2561</v>
+      <c r="C37" t="s">
+        <v>39</v>
       </c>
       <c r="D37">
-        <v>2145.65</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>1053.1300000000001</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>1010.9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+        <v>36.75</v>
+      </c>
+      <c r="G37">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
         <v>12</v>
       </c>
-      <c r="C38">
-        <v>9204.0499999999993</v>
+      <c r="C38" t="s">
+        <v>40</v>
       </c>
       <c r="D38">
-        <v>9171</v>
+        <v>1173</v>
       </c>
       <c r="E38">
-        <v>13234.75</v>
+        <v>7184.5</v>
       </c>
       <c r="F38">
-        <v>8785.15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1274.7</v>
+      </c>
+      <c r="G38">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
         <v>12</v>
       </c>
-      <c r="C39">
-        <v>1666.05</v>
+      <c r="C39" t="s">
+        <v>41</v>
       </c>
       <c r="D39">
-        <v>998</v>
+        <v>538.5</v>
       </c>
       <c r="E39">
-        <v>1061</v>
+        <v>538.5</v>
       </c>
       <c r="F39">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
         <v>12</v>
       </c>
-      <c r="C40">
-        <v>7538</v>
+      <c r="C40" t="s">
+        <v>42</v>
       </c>
       <c r="D40">
-        <v>8173</v>
+        <v>118.55</v>
       </c>
       <c r="E40">
-        <v>12137</v>
+        <v>-134.29000000000002</v>
       </c>
       <c r="F40">
-        <v>8301.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>232.65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>36.75</v>
-      </c>
-      <c r="F42">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43">
-        <v>1173</v>
-      </c>
-      <c r="D43">
-        <v>7184.5</v>
-      </c>
-      <c r="E43">
-        <v>1274.7</v>
-      </c>
-      <c r="F43">
-        <v>3190</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44">
-        <v>538.5</v>
-      </c>
-      <c r="D44">
-        <v>538.5</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45">
-        <v>118.55</v>
-      </c>
-      <c r="D45">
-        <v>-134.29000000000002</v>
-      </c>
-      <c r="E45">
         <v>560</v>
       </c>
-      <c r="F45">
+      <c r="G40">
         <v>2984.2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data_ASL.xlsx
+++ b/data_ASL.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/91a1cd10a85c31d1/Desktop/ASL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nyxan\OneDrive\Desktop\ASL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{ACA39CAC-F8B5-4839-8385-C5D5B00DA955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE90C5F6-6D8E-4D24-94EF-1B6BC93C8124}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7DDDD7-0B9A-4834-8B84-FF02CB4C1CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4E14E1CA-D397-4452-8287-2EEB3DCBBFB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Analyse" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
+    <sheet name="data_ASL" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
@@ -174,13 +174,13 @@
     <t>Gewinn</t>
   </si>
   <si>
-    <t>Konto</t>
+    <t>level1</t>
   </si>
   <si>
-    <t>Kategorie</t>
+    <t>level2</t>
   </si>
   <si>
-    <t>Unterkategorie</t>
+    <t>level3</t>
   </si>
 </sst>
 </file>
@@ -234,7 +234,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -255,6 +255,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -2599,8 +2602,8 @@
   </sheetPr>
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" activeCellId="1" sqref="B2 B8:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3659,19 +3662,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32465E32-7F01-467D-921C-5ABF18E5C861}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="30.25" customWidth="1"/>
+    <col min="1" max="2" width="30.25" customWidth="1"/>
+    <col min="3" max="3" width="30.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -3694,12 +3697,12 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -3717,15 +3720,15 @@
         <v>63240</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -3740,15 +3743,15 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -3763,15 +3766,15 @@
         <v>4550</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -3786,15 +3789,15 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
         <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3809,14 +3812,14 @@
         <v>2770.4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" t="s">
         <v>7</v>
       </c>
       <c r="D7">
@@ -3832,12 +3835,12 @@
         <v>900</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -3855,12 +3858,12 @@
         <v>12885.89</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
         <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -3878,12 +3881,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -3901,12 +3904,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
         <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>0</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -3924,12 +3927,12 @@
         <v>360</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
         <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>0</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -3947,15 +3950,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
         <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
       </c>
       <c r="D13">
         <v>8046</v>
@@ -3969,16 +3972,17 @@
       <c r="G13">
         <v>3165</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
         <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
       </c>
       <c r="D14">
         <v>1553.35</v>
@@ -3993,15 +3997,15 @@
         <v>4259.25</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
         <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
       </c>
       <c r="D15">
         <v>5694.25</v>
@@ -4016,15 +4020,15 @@
         <v>7495.9</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
         <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
       </c>
       <c r="D16">
         <v>2599.85</v>
@@ -4041,13 +4045,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
         <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>13</v>
       </c>
       <c r="D17">
         <v>1870</v>
@@ -4064,13 +4068,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
         <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" t="s">
-        <v>13</v>
       </c>
       <c r="D18">
         <v>883.1</v>
@@ -4087,13 +4091,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
         <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" t="s">
-        <v>13</v>
       </c>
       <c r="D19">
         <v>1524.2</v>
@@ -4110,13 +4114,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
         <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" t="s">
-        <v>13</v>
       </c>
       <c r="D20">
         <v>1290</v>
@@ -4133,13 +4137,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
         <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" t="s">
-        <v>13</v>
       </c>
       <c r="D21">
         <v>2422</v>
@@ -4156,13 +4160,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
         <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" t="s">
-        <v>13</v>
       </c>
       <c r="D22">
         <v>819.3</v>
@@ -4179,13 +4183,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
         <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" t="s">
-        <v>13</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -4202,13 +4206,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
         <v>26</v>
-      </c>
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
       </c>
       <c r="D24">
         <v>4599.1000000000004</v>
@@ -4225,13 +4229,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
         <v>27</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
       </c>
       <c r="D25">
         <v>2629.2</v>
@@ -4248,13 +4252,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
         <v>28</v>
-      </c>
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" t="s">
-        <v>25</v>
       </c>
       <c r="D26">
         <v>3732.65</v>
@@ -4271,13 +4275,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
         <v>29</v>
-      </c>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" t="s">
-        <v>25</v>
       </c>
       <c r="D27">
         <v>6462</v>
@@ -4294,13 +4298,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
         <v>3</v>
-      </c>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" t="s">
-        <v>25</v>
       </c>
       <c r="D28">
         <v>7538.9999999999991</v>
@@ -4317,13 +4321,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
         <v>5</v>
-      </c>
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" t="s">
-        <v>25</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -4340,13 +4344,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
         <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" t="s">
-        <v>25</v>
       </c>
       <c r="D30">
         <v>1155.9000000000001</v>
@@ -4363,13 +4367,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
         <v>32</v>
-      </c>
-      <c r="B31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" t="s">
-        <v>31</v>
       </c>
       <c r="D31">
         <v>2377.85</v>
@@ -4386,13 +4390,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
         <v>33</v>
-      </c>
-      <c r="B32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" t="s">
-        <v>31</v>
       </c>
       <c r="D32">
         <v>3500</v>
@@ -4409,10 +4413,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" t="s">
         <v>34</v>
-      </c>
-      <c r="B33" t="s">
-        <v>12</v>
       </c>
       <c r="C33" t="s">
         <v>34</v>
@@ -4432,13 +4436,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
         <v>36</v>
-      </c>
-      <c r="B34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" t="s">
-        <v>35</v>
       </c>
       <c r="D34">
         <v>1666.05</v>
@@ -4455,13 +4459,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
         <v>37</v>
-      </c>
-      <c r="B35" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" t="s">
-        <v>35</v>
       </c>
       <c r="D35">
         <v>7538</v>
@@ -4478,13 +4482,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
         <v>38</v>
-      </c>
-      <c r="B36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" t="s">
-        <v>35</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -4501,10 +4505,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" t="s">
         <v>39</v>
-      </c>
-      <c r="B37" t="s">
-        <v>12</v>
       </c>
       <c r="C37" t="s">
         <v>39</v>
@@ -4524,10 +4528,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" t="s">
         <v>40</v>
-      </c>
-      <c r="B38" t="s">
-        <v>12</v>
       </c>
       <c r="C38" t="s">
         <v>40</v>
@@ -4547,10 +4551,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" t="s">
         <v>41</v>
-      </c>
-      <c r="B39" t="s">
-        <v>12</v>
       </c>
       <c r="C39" t="s">
         <v>41</v>
@@ -4570,10 +4574,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
         <v>42</v>
-      </c>
-      <c r="B40" t="s">
-        <v>12</v>
       </c>
       <c r="C40" t="s">
         <v>42</v>
